--- a/core/utils/distgradeunificadaUMUARAMA.xlsx
+++ b/core/utils/distgradeunificadaUMUARAMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B690557-CF9B-418A-B665-912C34F0A41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E8E85D-CA17-43A2-B13B-7EABE9542A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -252,9 +252,6 @@
     <t>ESCOLA MUNICIPAL DR. GERMANO NORBERTO RUDNER</t>
   </si>
   <si>
-    <t>ESCOLA MUNICIPAL EVENGÉLICA</t>
-  </si>
-  <si>
     <t>ESCOLA MUNICIPAL MALBA TAHAN</t>
   </si>
   <si>
@@ -484,6 +481,9 @@
   </si>
   <si>
     <t>KIT UNIFORME EJA</t>
+  </si>
+  <si>
+    <t>ESCOLA MUNICIPAL EVANGÉLICA</t>
   </si>
 </sst>
 </file>
@@ -1007,9 +1007,9 @@
   <dimension ref="A1:U184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="R177" sqref="R177"/>
+      <selection pane="bottomLeft" activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>62</v>
@@ -1106,10 +1106,10 @@
         <v>43</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>21</v>
@@ -1132,19 +1132,19 @@
     </row>
     <row r="3" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>27</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="4" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>63</v>
@@ -1176,10 +1176,10 @@
         <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>28</v>
@@ -1202,19 +1202,19 @@
     </row>
     <row r="5" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>32</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="6" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>64</v>
@@ -1246,10 +1246,10 @@
         <v>45</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>33</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>65</v>
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>36</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="8" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>66</v>
@@ -1316,10 +1316,10 @@
         <v>46</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>39</v>
@@ -1342,19 +1342,19 @@
     </row>
     <row r="9" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>41</v>
@@ -1377,19 +1377,19 @@
     </row>
     <row r="10" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="11" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>67</v>
@@ -1421,10 +1421,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>19</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="12" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>68</v>
@@ -1456,10 +1456,10 @@
         <v>48</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>24</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>69</v>
@@ -1491,10 +1491,10 @@
         <v>11</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>26</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="14" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>70</v>
@@ -1526,10 +1526,10 @@
         <v>49</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>31</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="15" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>71</v>
@@ -1561,10 +1561,10 @@
         <v>12</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>37</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="16" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>72</v>
@@ -1596,10 +1596,10 @@
         <v>50</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>20</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="17" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>73</v>
@@ -1631,10 +1631,10 @@
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>18</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="18" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>74</v>
@@ -1666,10 +1666,10 @@
         <v>51</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>22</v>
@@ -1692,19 +1692,19 @@
     </row>
     <row r="19" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>23</v>
@@ -1727,19 +1727,19 @@
     </row>
     <row r="20" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>25</v>
@@ -1762,19 +1762,19 @@
     </row>
     <row r="21" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>29</v>
@@ -1797,19 +1797,19 @@
     </row>
     <row r="22" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>30</v>
@@ -1832,19 +1832,19 @@
     </row>
     <row r="23" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>34</v>
@@ -1867,19 +1867,19 @@
     </row>
     <row r="24" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>35</v>
@@ -1902,19 +1902,19 @@
     </row>
     <row r="25" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>38</v>
@@ -1937,19 +1937,19 @@
     </row>
     <row r="26" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>40</v>
@@ -1972,22 +1972,22 @@
     </row>
     <row r="27" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="D27" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -2007,22 +2007,22 @@
     </row>
     <row r="28" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -2042,22 +2042,22 @@
     </row>
     <row r="29" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -2077,22 +2077,22 @@
     </row>
     <row r="30" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -2112,22 +2112,22 @@
     </row>
     <row r="31" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -2147,22 +2147,22 @@
     </row>
     <row r="32" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -2182,22 +2182,22 @@
     </row>
     <row r="33" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -2217,22 +2217,22 @@
     </row>
     <row r="34" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -2252,22 +2252,22 @@
     </row>
     <row r="35" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -2287,22 +2287,22 @@
     </row>
     <row r="36" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -2322,22 +2322,22 @@
     </row>
     <row r="37" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -2357,22 +2357,22 @@
     </row>
     <row r="38" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -2392,22 +2392,22 @@
     </row>
     <row r="39" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -2427,22 +2427,22 @@
     </row>
     <row r="40" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -2462,22 +2462,22 @@
     </row>
     <row r="41" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -2497,22 +2497,22 @@
     </row>
     <row r="42" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -2532,22 +2532,22 @@
     </row>
     <row r="43" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -2567,22 +2567,22 @@
     </row>
     <row r="44" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -2602,22 +2602,22 @@
     </row>
     <row r="45" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2637,22 +2637,22 @@
     </row>
     <row r="46" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="E46" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="48" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>62</v>
@@ -2704,10 +2704,10 @@
         <v>43</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>21</v>
@@ -2730,19 +2730,19 @@
     </row>
     <row r="49" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>27</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="50" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>63</v>
@@ -2774,10 +2774,10 @@
         <v>44</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>28</v>
@@ -2800,19 +2800,19 @@
     </row>
     <row r="51" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>32</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="52" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>64</v>
@@ -2844,10 +2844,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>33</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="53" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>65</v>
@@ -2879,10 +2879,10 @@
         <v>8</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>36</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="54" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>66</v>
@@ -2914,10 +2914,10 @@
         <v>46</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>39</v>
@@ -2940,19 +2940,19 @@
     </row>
     <row r="55" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>41</v>
@@ -2975,19 +2975,19 @@
     </row>
     <row r="56" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>42</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="57" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>67</v>
@@ -3019,10 +3019,10 @@
         <v>10</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>19</v>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="58" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>68</v>
@@ -3054,10 +3054,10 @@
         <v>48</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>24</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="59" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>69</v>
@@ -3089,10 +3089,10 @@
         <v>11</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>26</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="60" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>70</v>
@@ -3124,10 +3124,10 @@
         <v>49</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>31</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="61" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>71</v>
@@ -3159,10 +3159,10 @@
         <v>12</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>37</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="62" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>72</v>
@@ -3194,10 +3194,10 @@
         <v>50</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>20</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="63" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>73</v>
@@ -3229,10 +3229,10 @@
         <v>13</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>18</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="64" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>74</v>
@@ -3264,10 +3264,10 @@
         <v>51</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>22</v>
@@ -3290,19 +3290,19 @@
     </row>
     <row r="65" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>23</v>
@@ -3325,19 +3325,19 @@
     </row>
     <row r="66" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>25</v>
@@ -3360,19 +3360,19 @@
     </row>
     <row r="67" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>29</v>
@@ -3395,19 +3395,19 @@
     </row>
     <row r="68" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>30</v>
@@ -3430,19 +3430,19 @@
     </row>
     <row r="69" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>34</v>
@@ -3465,19 +3465,19 @@
     </row>
     <row r="70" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>35</v>
@@ -3500,19 +3500,19 @@
     </row>
     <row r="71" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>38</v>
@@ -3535,19 +3535,19 @@
     </row>
     <row r="72" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>40</v>
@@ -3570,22 +3570,22 @@
     </row>
     <row r="73" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="D73" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E73" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
@@ -3605,22 +3605,22 @@
     </row>
     <row r="74" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -3640,22 +3640,22 @@
     </row>
     <row r="75" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
@@ -3675,22 +3675,22 @@
     </row>
     <row r="76" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
@@ -3710,22 +3710,22 @@
     </row>
     <row r="77" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
@@ -3745,22 +3745,22 @@
     </row>
     <row r="78" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
@@ -3780,22 +3780,22 @@
     </row>
     <row r="79" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
@@ -3815,22 +3815,22 @@
     </row>
     <row r="80" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
@@ -3850,22 +3850,22 @@
     </row>
     <row r="81" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
@@ -3885,22 +3885,22 @@
     </row>
     <row r="82" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -3920,22 +3920,22 @@
     </row>
     <row r="83" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
@@ -3955,22 +3955,22 @@
     </row>
     <row r="84" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
@@ -3990,22 +3990,22 @@
     </row>
     <row r="85" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -4025,22 +4025,22 @@
     </row>
     <row r="86" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
@@ -4060,22 +4060,22 @@
     </row>
     <row r="87" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
@@ -4095,22 +4095,22 @@
     </row>
     <row r="88" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
@@ -4130,22 +4130,22 @@
     </row>
     <row r="89" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
@@ -4165,22 +4165,22 @@
     </row>
     <row r="90" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
@@ -4200,22 +4200,22 @@
     </row>
     <row r="91" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
@@ -4235,22 +4235,22 @@
     </row>
     <row r="92" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="94" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>62</v>
@@ -4302,10 +4302,10 @@
         <v>43</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>21</v>
@@ -4328,19 +4328,19 @@
     </row>
     <row r="95" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>27</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="96" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>63</v>
@@ -4372,10 +4372,10 @@
         <v>44</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>28</v>
@@ -4398,19 +4398,19 @@
     </row>
     <row r="97" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>32</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="98" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>64</v>
@@ -4442,10 +4442,10 @@
         <v>45</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>33</v>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="99" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>65</v>
@@ -4477,10 +4477,10 @@
         <v>8</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>36</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="100" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>66</v>
@@ -4512,10 +4512,10 @@
         <v>46</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>39</v>
@@ -4538,19 +4538,19 @@
     </row>
     <row r="101" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>41</v>
@@ -4573,19 +4573,19 @@
     </row>
     <row r="102" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>42</v>
@@ -4608,7 +4608,7 @@
     </row>
     <row r="103" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>67</v>
@@ -4617,10 +4617,10 @@
         <v>10</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>19</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="104" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>68</v>
@@ -4652,10 +4652,10 @@
         <v>48</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>24</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="105" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>69</v>
@@ -4687,10 +4687,10 @@
         <v>11</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>26</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="106" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>70</v>
@@ -4722,10 +4722,10 @@
         <v>49</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>31</v>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="107" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>71</v>
@@ -4757,10 +4757,10 @@
         <v>12</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>37</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="108" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>72</v>
@@ -4792,10 +4792,10 @@
         <v>50</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>20</v>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="109" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>73</v>
@@ -4827,10 +4827,10 @@
         <v>13</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>18</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="110" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>74</v>
@@ -4862,10 +4862,10 @@
         <v>51</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>22</v>
@@ -4888,19 +4888,19 @@
     </row>
     <row r="111" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>23</v>
@@ -4923,19 +4923,19 @@
     </row>
     <row r="112" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>25</v>
@@ -4958,19 +4958,19 @@
     </row>
     <row r="113" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>29</v>
@@ -4993,19 +4993,19 @@
     </row>
     <row r="114" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F114" s="10" t="s">
         <v>30</v>
@@ -5028,19 +5028,19 @@
     </row>
     <row r="115" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>34</v>
@@ -5063,19 +5063,19 @@
     </row>
     <row r="116" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>35</v>
@@ -5098,19 +5098,19 @@
     </row>
     <row r="117" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F117" s="10" t="s">
         <v>38</v>
@@ -5133,19 +5133,19 @@
     </row>
     <row r="118" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F118" s="10" t="s">
         <v>40</v>
@@ -5168,22 +5168,22 @@
     </row>
     <row r="119" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C119" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="D119" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E119" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F119" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
@@ -5203,22 +5203,22 @@
     </row>
     <row r="120" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
@@ -5238,22 +5238,22 @@
     </row>
     <row r="121" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
@@ -5273,22 +5273,22 @@
     </row>
     <row r="122" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
@@ -5308,22 +5308,22 @@
     </row>
     <row r="123" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
@@ -5343,22 +5343,22 @@
     </row>
     <row r="124" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
@@ -5378,22 +5378,22 @@
     </row>
     <row r="125" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
@@ -5413,22 +5413,22 @@
     </row>
     <row r="126" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
@@ -5448,22 +5448,22 @@
     </row>
     <row r="127" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
@@ -5483,22 +5483,22 @@
     </row>
     <row r="128" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
@@ -5518,22 +5518,22 @@
     </row>
     <row r="129" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
@@ -5553,22 +5553,22 @@
     </row>
     <row r="130" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
@@ -5588,22 +5588,22 @@
     </row>
     <row r="131" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
@@ -5623,22 +5623,22 @@
     </row>
     <row r="132" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
@@ -5658,22 +5658,22 @@
     </row>
     <row r="133" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
@@ -5693,22 +5693,22 @@
     </row>
     <row r="134" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
@@ -5728,22 +5728,22 @@
     </row>
     <row r="135" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
@@ -5763,22 +5763,22 @@
     </row>
     <row r="136" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
@@ -5798,22 +5798,22 @@
     </row>
     <row r="137" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
@@ -5833,22 +5833,22 @@
     </row>
     <row r="138" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="140" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>62</v>
@@ -5900,10 +5900,10 @@
         <v>43</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F140" s="10" t="s">
         <v>21</v>
@@ -5926,19 +5926,19 @@
     </row>
     <row r="141" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F141" s="10" t="s">
         <v>27</v>
@@ -5961,7 +5961,7 @@
     </row>
     <row r="142" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>63</v>
@@ -5970,10 +5970,10 @@
         <v>44</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F142" s="10" t="s">
         <v>28</v>
@@ -5996,19 +5996,19 @@
     </row>
     <row r="143" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F143" s="10" t="s">
         <v>32</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="144" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>64</v>
@@ -6040,10 +6040,10 @@
         <v>45</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F144" s="10" t="s">
         <v>33</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="145" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>65</v>
@@ -6075,10 +6075,10 @@
         <v>8</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F145" s="10" t="s">
         <v>36</v>
@@ -6101,7 +6101,7 @@
     </row>
     <row r="146" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>66</v>
@@ -6110,10 +6110,10 @@
         <v>46</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F146" s="10" t="s">
         <v>39</v>
@@ -6136,19 +6136,19 @@
     </row>
     <row r="147" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C147" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F147" s="10" t="s">
         <v>41</v>
@@ -6171,19 +6171,19 @@
     </row>
     <row r="148" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F148" s="10" t="s">
         <v>42</v>
@@ -6206,7 +6206,7 @@
     </row>
     <row r="149" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>67</v>
@@ -6215,10 +6215,10 @@
         <v>10</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F149" s="10" t="s">
         <v>19</v>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="150" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>68</v>
@@ -6250,10 +6250,10 @@
         <v>48</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F150" s="10" t="s">
         <v>24</v>
@@ -6276,7 +6276,7 @@
     </row>
     <row r="151" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>69</v>
@@ -6285,10 +6285,10 @@
         <v>11</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F151" s="10" t="s">
         <v>26</v>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="152" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>70</v>
@@ -6320,10 +6320,10 @@
         <v>49</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F152" s="10" t="s">
         <v>31</v>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="153" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>71</v>
@@ -6355,10 +6355,10 @@
         <v>12</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F153" s="10" t="s">
         <v>37</v>
@@ -6381,7 +6381,7 @@
     </row>
     <row r="154" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>72</v>
@@ -6390,10 +6390,10 @@
         <v>50</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F154" s="10" t="s">
         <v>20</v>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="155" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>73</v>
@@ -6425,10 +6425,10 @@
         <v>13</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F155" s="10" t="s">
         <v>18</v>
@@ -6451,7 +6451,7 @@
     </row>
     <row r="156" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>74</v>
@@ -6460,10 +6460,10 @@
         <v>51</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F156" s="10" t="s">
         <v>22</v>
@@ -6486,19 +6486,19 @@
     </row>
     <row r="157" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="C157" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F157" s="10" t="s">
         <v>23</v>
@@ -6521,19 +6521,19 @@
     </row>
     <row r="158" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C158" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F158" s="10" t="s">
         <v>25</v>
@@ -6556,19 +6556,19 @@
     </row>
     <row r="159" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C159" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F159" s="10" t="s">
         <v>29</v>
@@ -6591,19 +6591,19 @@
     </row>
     <row r="160" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C160" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F160" s="10" t="s">
         <v>30</v>
@@ -6626,19 +6626,19 @@
     </row>
     <row r="161" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C161" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F161" s="10" t="s">
         <v>34</v>
@@ -6661,19 +6661,19 @@
     </row>
     <row r="162" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C162" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F162" s="10" t="s">
         <v>35</v>
@@ -6696,19 +6696,19 @@
     </row>
     <row r="163" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C163" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F163" s="10" t="s">
         <v>38</v>
@@ -6731,19 +6731,19 @@
     </row>
     <row r="164" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C164" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F164" s="10" t="s">
         <v>40</v>
@@ -6766,22 +6766,22 @@
     </row>
     <row r="165" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C165" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B165" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="D165" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E165" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F165" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="F165" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
@@ -6801,22 +6801,22 @@
     </row>
     <row r="166" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G166" s="11"/>
       <c r="H166" s="11"/>
@@ -6836,22 +6836,22 @@
     </row>
     <row r="167" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G167" s="11"/>
       <c r="H167" s="11"/>
@@ -6871,22 +6871,22 @@
     </row>
     <row r="168" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G168" s="11"/>
       <c r="H168" s="11"/>
@@ -6906,22 +6906,22 @@
     </row>
     <row r="169" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F169" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
@@ -6941,22 +6941,22 @@
     </row>
     <row r="170" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F170" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G170" s="11"/>
       <c r="H170" s="11"/>
@@ -6976,22 +6976,22 @@
     </row>
     <row r="171" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G171" s="11"/>
       <c r="H171" s="11"/>
@@ -7011,22 +7011,22 @@
     </row>
     <row r="172" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G172" s="11"/>
       <c r="H172" s="11"/>
@@ -7046,22 +7046,22 @@
     </row>
     <row r="173" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G173" s="11"/>
       <c r="H173" s="11"/>
@@ -7081,22 +7081,22 @@
     </row>
     <row r="174" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G174" s="11"/>
       <c r="H174" s="11"/>
@@ -7116,22 +7116,22 @@
     </row>
     <row r="175" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F175" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G175" s="11"/>
       <c r="H175" s="11"/>
@@ -7151,22 +7151,22 @@
     </row>
     <row r="176" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F176" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G176" s="11"/>
       <c r="H176" s="11"/>
@@ -7186,22 +7186,22 @@
     </row>
     <row r="177" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F177" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G177" s="11"/>
       <c r="H177" s="11"/>
@@ -7221,22 +7221,22 @@
     </row>
     <row r="178" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F178" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G178" s="11"/>
       <c r="H178" s="11"/>
@@ -7256,22 +7256,22 @@
     </row>
     <row r="179" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G179" s="11"/>
       <c r="H179" s="11"/>
@@ -7291,22 +7291,22 @@
     </row>
     <row r="180" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G180" s="11"/>
       <c r="H180" s="11"/>
@@ -7326,22 +7326,22 @@
     </row>
     <row r="181" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G181" s="11"/>
       <c r="H181" s="11"/>
@@ -7361,22 +7361,22 @@
     </row>
     <row r="182" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G182" s="11"/>
       <c r="H182" s="11"/>
@@ -7396,22 +7396,22 @@
     </row>
     <row r="183" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G183" s="11"/>
       <c r="H183" s="11"/>
@@ -7431,22 +7431,22 @@
     </row>
     <row r="184" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G184" s="11"/>
       <c r="H184" s="11"/>

--- a/core/utils/distgradeunificadaUMUARAMA.xlsx
+++ b/core/utils/distgradeunificadaUMUARAMA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYS_EXPED_BACK\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E8E85D-CA17-43A2-B13B-7EABE9542A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9336E1-806F-42CD-87E0-BDFD8CF05786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1007,9 +1007,9 @@
   <dimension ref="A1:U184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B157" sqref="B157"/>
+      <selection pane="bottomLeft" activeCell="S150" sqref="S150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6189,17 +6189,31 @@
         <v>42</v>
       </c>
       <c r="G148" s="11"/>
-      <c r="H148" s="11"/>
+      <c r="H148" s="11">
+        <v>8</v>
+      </c>
       <c r="I148" s="11"/>
       <c r="J148" s="11"/>
-      <c r="K148" s="11"/>
+      <c r="K148" s="11">
+        <v>8</v>
+      </c>
       <c r="L148" s="11"/>
-      <c r="M148" s="11"/>
-      <c r="N148" s="11"/>
-      <c r="O148" s="11"/>
-      <c r="P148" s="11"/>
+      <c r="M148" s="11">
+        <v>8</v>
+      </c>
+      <c r="N148" s="11">
+        <v>8</v>
+      </c>
+      <c r="O148" s="11">
+        <v>8</v>
+      </c>
+      <c r="P148" s="11">
+        <v>8</v>
+      </c>
       <c r="Q148" s="11"/>
-      <c r="R148" s="11"/>
+      <c r="R148" s="11">
+        <v>8</v>
+      </c>
       <c r="S148" s="11"/>
       <c r="T148" s="11"/>
       <c r="U148" s="11"/>
